--- a/data/pca/factorExposure/factorExposure_2014-11-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +726,57 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.0006727967887232797</v>
+        <v>0.008096523281962191</v>
       </c>
       <c r="C2">
-        <v>0.07467154264688541</v>
+        <v>-0.06999247108840859</v>
       </c>
       <c r="D2">
-        <v>0.1512818089336514</v>
+        <v>-0.008803085105373648</v>
       </c>
       <c r="E2">
-        <v>0.1696521931337497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1821246971477685</v>
+      </c>
+      <c r="F2">
+        <v>-0.03816560394696753</v>
+      </c>
+      <c r="G2">
+        <v>0.07131153635760509</v>
+      </c>
+      <c r="H2">
+        <v>0.05173241349877161</v>
+      </c>
+      <c r="I2">
+        <v>-0.1039476420924106</v>
+      </c>
+      <c r="J2">
+        <v>-0.2323959202498767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +790,57 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01441901391266218</v>
+        <v>0.01181250327603828</v>
       </c>
       <c r="C4">
-        <v>0.1491985665224034</v>
+        <v>-0.1517787642069877</v>
       </c>
       <c r="D4">
-        <v>0.07433012654964417</v>
+        <v>0.02421951935450335</v>
       </c>
       <c r="E4">
-        <v>0.0699532427756481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.1039443046537066</v>
+      </c>
+      <c r="F4">
+        <v>0.06837090375607077</v>
+      </c>
+      <c r="G4">
+        <v>0.005342314674995851</v>
+      </c>
+      <c r="H4">
+        <v>0.09579540683133815</v>
+      </c>
+      <c r="I4">
+        <v>0.02129122924316698</v>
+      </c>
+      <c r="J4">
+        <v>-0.1389872605065565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +854,377 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01626825900690701</v>
+        <v>0.03154556149105526</v>
       </c>
       <c r="C6">
-        <v>0.06921150254572056</v>
+        <v>-0.0712117685653323</v>
       </c>
       <c r="D6">
-        <v>0.06490712584574902</v>
+        <v>0.007231612726432079</v>
       </c>
       <c r="E6">
-        <v>0.09784240750334659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.114318398452283</v>
+      </c>
+      <c r="F6">
+        <v>-0.03308947439510066</v>
+      </c>
+      <c r="G6">
+        <v>-0.04282553349192435</v>
+      </c>
+      <c r="H6">
+        <v>0.03038660670381778</v>
+      </c>
+      <c r="I6">
+        <v>-0.05025383687535838</v>
+      </c>
+      <c r="J6">
+        <v>-0.01985100118005259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01747621752050556</v>
+        <v>0.005930174443331692</v>
       </c>
       <c r="C7">
-        <v>0.04968818555376464</v>
+        <v>-0.06702327752566599</v>
       </c>
       <c r="D7">
-        <v>0.03440047023941923</v>
+        <v>0.003149828278904601</v>
       </c>
       <c r="E7">
-        <v>0.0584992383250743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0550042067848579</v>
+      </c>
+      <c r="F7">
+        <v>0.01858858308687579</v>
+      </c>
+      <c r="G7">
+        <v>-0.05909413752162734</v>
+      </c>
+      <c r="H7">
+        <v>0.08132935432002478</v>
+      </c>
+      <c r="I7">
+        <v>-0.00840377051025757</v>
+      </c>
+      <c r="J7">
+        <v>-0.03536966353108989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.01569112052576199</v>
+        <v>-0.008971489449036731</v>
       </c>
       <c r="C8">
-        <v>0.07509753860455079</v>
+        <v>-0.07095081290613804</v>
       </c>
       <c r="D8">
-        <v>0.05873080403432157</v>
+        <v>0.02511309909173856</v>
       </c>
       <c r="E8">
-        <v>0.1277126876030666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0900425389133049</v>
+      </c>
+      <c r="F8">
+        <v>0.0295809086572048</v>
+      </c>
+      <c r="G8">
+        <v>0.05246421894144224</v>
+      </c>
+      <c r="H8">
+        <v>0.02364989552507992</v>
+      </c>
+      <c r="I8">
+        <v>-0.006027063598843494</v>
+      </c>
+      <c r="J8">
+        <v>-0.01793779257009477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.005806576578491878</v>
+        <v>0.007016804786350798</v>
       </c>
       <c r="C9">
-        <v>0.1270424546172859</v>
+        <v>-0.1174327653583913</v>
       </c>
       <c r="D9">
-        <v>0.04806690547435971</v>
+        <v>0.01868138841505367</v>
       </c>
       <c r="E9">
-        <v>0.06047089194158928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.06575007240707331</v>
+      </c>
+      <c r="F9">
+        <v>0.01525555702563333</v>
+      </c>
+      <c r="G9">
+        <v>0.001470353380073806</v>
+      </c>
+      <c r="H9">
+        <v>0.09652069552118303</v>
+      </c>
+      <c r="I9">
+        <v>-0.004865411767454349</v>
+      </c>
+      <c r="J9">
+        <v>-0.06204460581982753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2583388170745664</v>
+        <v>0.2513724850804742</v>
       </c>
       <c r="C10">
-        <v>-0.08856474018431647</v>
+        <v>0.0820358160498898</v>
       </c>
       <c r="D10">
-        <v>0.04276836586663769</v>
+        <v>-0.003647070592049145</v>
       </c>
       <c r="E10">
-        <v>-0.04647941031773474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01354940706590077</v>
+      </c>
+      <c r="F10">
+        <v>0.01279188384001772</v>
+      </c>
+      <c r="G10">
+        <v>-0.01556878487777442</v>
+      </c>
+      <c r="H10">
+        <v>0.03517166443327676</v>
+      </c>
+      <c r="I10">
+        <v>0.1664398134800607</v>
+      </c>
+      <c r="J10">
+        <v>0.08679023540296511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.002165388054176102</v>
+        <v>0.01006758294025813</v>
       </c>
       <c r="C11">
-        <v>0.06278350641464865</v>
+        <v>-0.08018978343909453</v>
       </c>
       <c r="D11">
-        <v>0.02205630899652517</v>
+        <v>0.01917410406433307</v>
       </c>
       <c r="E11">
-        <v>0.03023950402877764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02406275986201548</v>
+      </c>
+      <c r="F11">
+        <v>0.0085815161642308</v>
+      </c>
+      <c r="G11">
+        <v>-0.03074632297589572</v>
+      </c>
+      <c r="H11">
+        <v>0.03261079563589896</v>
+      </c>
+      <c r="I11">
+        <v>0.006758389506669059</v>
+      </c>
+      <c r="J11">
+        <v>0.03400983336584441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.00351573983205653</v>
+        <v>0.01131115067013861</v>
       </c>
       <c r="C12">
-        <v>0.05929060047318675</v>
+        <v>-0.06267718691012364</v>
       </c>
       <c r="D12">
-        <v>0.01653642840237392</v>
+        <v>0.007926474555475852</v>
       </c>
       <c r="E12">
-        <v>0.02379593736384004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.02153295861781607</v>
+      </c>
+      <c r="F12">
+        <v>-0.0214869402951364</v>
+      </c>
+      <c r="G12">
+        <v>-0.03252869951622131</v>
+      </c>
+      <c r="H12">
+        <v>0.03352298051048249</v>
+      </c>
+      <c r="I12">
+        <v>0.01052174730706214</v>
+      </c>
+      <c r="J12">
+        <v>0.007885509430990111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.004111263110055457</v>
+        <v>0.001276606083034619</v>
       </c>
       <c r="C13">
-        <v>0.08624203329012491</v>
+        <v>-0.1112544970647697</v>
       </c>
       <c r="D13">
-        <v>0.07815643243335087</v>
+        <v>-0.003775442635119372</v>
       </c>
       <c r="E13">
-        <v>0.1222423951062407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1565231187997551</v>
+      </c>
+      <c r="F13">
+        <v>-0.1022300351570909</v>
+      </c>
+      <c r="G13">
+        <v>-0.0664896853594457</v>
+      </c>
+      <c r="H13">
+        <v>0.07482249798481495</v>
+      </c>
+      <c r="I13">
+        <v>0.1085667410158522</v>
+      </c>
+      <c r="J13">
+        <v>0.05169851088429201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.005712379110978115</v>
+        <v>0.008128402750356966</v>
       </c>
       <c r="C14">
-        <v>0.05973285439283786</v>
+        <v>-0.07858229090362781</v>
       </c>
       <c r="D14">
-        <v>0.03266937887015006</v>
+        <v>0.0257208144310005</v>
       </c>
       <c r="E14">
-        <v>0.06218119543942158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.09229150108100273</v>
+      </c>
+      <c r="F14">
+        <v>-0.04129096293901612</v>
+      </c>
+      <c r="G14">
+        <v>-0.09615280520131388</v>
+      </c>
+      <c r="H14">
+        <v>0.1764752710157696</v>
+      </c>
+      <c r="I14">
+        <v>-0.02855894312887837</v>
+      </c>
+      <c r="J14">
+        <v>0.1676259719398945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0008720683439786232</v>
+        <v>-0.001211577942965598</v>
       </c>
       <c r="C15">
-        <v>0.07142175101698085</v>
+        <v>-0.07204058646610439</v>
       </c>
       <c r="D15">
-        <v>0.05076081468289292</v>
+        <v>0.01031631291574034</v>
       </c>
       <c r="E15">
-        <v>0.08740705582580363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.06590159477095761</v>
+      </c>
+      <c r="F15">
+        <v>0.004739349044099382</v>
+      </c>
+      <c r="G15">
+        <v>-0.03203378634199963</v>
+      </c>
+      <c r="H15">
+        <v>0.05764245626000758</v>
+      </c>
+      <c r="I15">
+        <v>-0.01173298449700728</v>
+      </c>
+      <c r="J15">
+        <v>0.05074196649921112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.006794346976578306</v>
+        <v>0.01060280136133216</v>
       </c>
       <c r="C16">
-        <v>0.05878818997140426</v>
+        <v>-0.06702258539099078</v>
       </c>
       <c r="D16">
-        <v>0.02034068355600429</v>
+        <v>0.009144012065487027</v>
       </c>
       <c r="E16">
-        <v>0.01979756740776349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01521333782921146</v>
+      </c>
+      <c r="F16">
+        <v>-0.003031136766995378</v>
+      </c>
+      <c r="G16">
+        <v>-0.0302452635871329</v>
+      </c>
+      <c r="H16">
+        <v>0.03047514425585962</v>
+      </c>
+      <c r="I16">
+        <v>0.008933786533203283</v>
+      </c>
+      <c r="J16">
+        <v>0.007955617118547862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1238,25 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1270,25 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1302,249 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.0001977694142706082</v>
+        <v>0.005831951434627161</v>
       </c>
       <c r="C20">
-        <v>0.06978961754360008</v>
+        <v>-0.08507577966863498</v>
       </c>
       <c r="D20">
-        <v>0.05218938625686547</v>
+        <v>0.000312150216284783</v>
       </c>
       <c r="E20">
-        <v>0.04221963493964832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0429278633018793</v>
+      </c>
+      <c r="F20">
+        <v>0.01295469042779786</v>
+      </c>
+      <c r="G20">
+        <v>-0.069405352730862</v>
+      </c>
+      <c r="H20">
+        <v>0.05947602558492671</v>
+      </c>
+      <c r="I20">
+        <v>-0.006510413297977696</v>
+      </c>
+      <c r="J20">
+        <v>-0.006384026090296886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.002201696805202185</v>
+        <v>0.006126401672654617</v>
       </c>
       <c r="C21">
-        <v>0.08595154432590153</v>
+        <v>-0.08169964055078989</v>
       </c>
       <c r="D21">
-        <v>0.09306027600505905</v>
+        <v>0.0026411486904597</v>
       </c>
       <c r="E21">
-        <v>0.0621424716628883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.09334451470446208</v>
+      </c>
+      <c r="F21">
+        <v>-0.07216619619741863</v>
+      </c>
+      <c r="G21">
+        <v>-0.004101207502905428</v>
+      </c>
+      <c r="H21">
+        <v>0.1654436347901374</v>
+      </c>
+      <c r="I21">
+        <v>0.04023024196472481</v>
+      </c>
+      <c r="J21">
+        <v>0.03380985344767177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.01244657579623091</v>
+        <v>-0.0156302087446527</v>
       </c>
       <c r="C22">
-        <v>0.1298368639170914</v>
+        <v>-0.1408361922203303</v>
       </c>
       <c r="D22">
-        <v>0.250921198986775</v>
+        <v>-0.03194890981870015</v>
       </c>
       <c r="E22">
-        <v>0.1896424348046053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.3666485067191252</v>
+      </c>
+      <c r="F22">
+        <v>0.1518679772510652</v>
+      </c>
+      <c r="G22">
+        <v>0.2441625233864683</v>
+      </c>
+      <c r="H22">
+        <v>-0.3976161689094929</v>
+      </c>
+      <c r="I22">
+        <v>0.04733752711367522</v>
+      </c>
+      <c r="J22">
+        <v>0.2132376290248179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01292355257425137</v>
+        <v>-0.01206820992720734</v>
       </c>
       <c r="C23">
-        <v>0.1314466404359198</v>
+        <v>-0.1452869105125757</v>
       </c>
       <c r="D23">
-        <v>0.2493315267681519</v>
+        <v>-0.0343467138972843</v>
       </c>
       <c r="E23">
-        <v>0.187990883242079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.3588226557258095</v>
+      </c>
+      <c r="F23">
+        <v>0.1451068606351348</v>
+      </c>
+      <c r="G23">
+        <v>0.236919704240027</v>
+      </c>
+      <c r="H23">
+        <v>-0.3721967911992741</v>
+      </c>
+      <c r="I23">
+        <v>0.05038610134215896</v>
+      </c>
+      <c r="J23">
+        <v>0.2027350971145559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-2.080098753523669e-05</v>
+        <v>0.01097264660740402</v>
       </c>
       <c r="C24">
-        <v>0.07467473840883392</v>
+        <v>-0.07690267815181218</v>
       </c>
       <c r="D24">
-        <v>0.01386538935293</v>
+        <v>0.0236585986782422</v>
       </c>
       <c r="E24">
-        <v>0.03792137844822138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02616772299964511</v>
+      </c>
+      <c r="F24">
+        <v>0.002243708029410026</v>
+      </c>
+      <c r="G24">
+        <v>-0.03380226820024052</v>
+      </c>
+      <c r="H24">
+        <v>0.0436547183492075</v>
+      </c>
+      <c r="I24">
+        <v>0.002561087084477756</v>
+      </c>
+      <c r="J24">
+        <v>0.01098931801154943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.007630072651267509</v>
+        <v>0.01709279389263833</v>
       </c>
       <c r="C25">
-        <v>0.07172777987823124</v>
+        <v>-0.07537136381885465</v>
       </c>
       <c r="D25">
-        <v>0.0170405074900197</v>
+        <v>0.01458050536061401</v>
       </c>
       <c r="E25">
-        <v>0.0156598801976423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01873069762096732</v>
+      </c>
+      <c r="F25">
+        <v>0.004797025789106559</v>
+      </c>
+      <c r="G25">
+        <v>-0.02968393120977313</v>
+      </c>
+      <c r="H25">
+        <v>0.03306131957112</v>
+      </c>
+      <c r="I25">
+        <v>0.01768409633696101</v>
+      </c>
+      <c r="J25">
+        <v>0.03311136841157124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.002016787084060145</v>
+        <v>0.01620609089589377</v>
       </c>
       <c r="C26">
-        <v>0.05213483073238499</v>
+        <v>-0.06339742596333882</v>
       </c>
       <c r="D26">
-        <v>0.02402670244243156</v>
+        <v>0.04319196555136803</v>
       </c>
       <c r="E26">
-        <v>0.05990473031184861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04525298154042868</v>
+      </c>
+      <c r="F26">
+        <v>-0.006316394480598122</v>
+      </c>
+      <c r="G26">
+        <v>-0.0280682266440171</v>
+      </c>
+      <c r="H26">
+        <v>0.1187063984653974</v>
+      </c>
+      <c r="I26">
+        <v>0.01606297799590757</v>
+      </c>
+      <c r="J26">
+        <v>-0.07990528627681896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1558,313 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3308041617021472</v>
+        <v>0.3159837182438636</v>
       </c>
       <c r="C28">
-        <v>-0.09568167419115811</v>
+        <v>0.1024196110192608</v>
       </c>
       <c r="D28">
-        <v>0.02847271373222377</v>
+        <v>-0.01726567746828718</v>
       </c>
       <c r="E28">
-        <v>-0.05703272394763458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02110015230354865</v>
+      </c>
+      <c r="F28">
+        <v>0.05528787357333376</v>
+      </c>
+      <c r="G28">
+        <v>0.06304234962681322</v>
+      </c>
+      <c r="H28">
+        <v>0.0778895464482337</v>
+      </c>
+      <c r="I28">
+        <v>0.1748794658534797</v>
+      </c>
+      <c r="J28">
+        <v>-0.05058209609204093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.002753630998245943</v>
+        <v>0.005277554397202809</v>
       </c>
       <c r="C29">
-        <v>0.05860157170123446</v>
+        <v>-0.08151027273448828</v>
       </c>
       <c r="D29">
-        <v>0.05002008922822737</v>
+        <v>0.01979622012614191</v>
       </c>
       <c r="E29">
-        <v>0.09066778240404721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1333084112522377</v>
+      </c>
+      <c r="F29">
+        <v>-0.05826321597254021</v>
+      </c>
+      <c r="G29">
+        <v>-0.144453059974979</v>
+      </c>
+      <c r="H29">
+        <v>0.2405938343253083</v>
+      </c>
+      <c r="I29">
+        <v>-0.0564877308270345</v>
+      </c>
+      <c r="J29">
+        <v>0.2453796203405833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01456724580559774</v>
+        <v>0.01794508736405802</v>
       </c>
       <c r="C30">
-        <v>0.1719987434006587</v>
+        <v>-0.1554146623338649</v>
       </c>
       <c r="D30">
-        <v>0.05204927506227052</v>
+        <v>0.03047747610609304</v>
       </c>
       <c r="E30">
-        <v>0.08270724868940264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.07731851822864448</v>
+      </c>
+      <c r="F30">
+        <v>0.02579310166374396</v>
+      </c>
+      <c r="G30">
+        <v>0.01728752148805535</v>
+      </c>
+      <c r="H30">
+        <v>0.02638397518845073</v>
+      </c>
+      <c r="I30">
+        <v>-0.01686762157497108</v>
+      </c>
+      <c r="J30">
+        <v>-0.08220702669408057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.01246272723913307</v>
+        <v>0.003805471584898175</v>
       </c>
       <c r="C31">
-        <v>0.09829675551109891</v>
+        <v>-0.09849567074896022</v>
       </c>
       <c r="D31">
-        <v>-0.0289740487754177</v>
+        <v>0.03038415407580541</v>
       </c>
       <c r="E31">
-        <v>0.003037169392113391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008993189957203575</v>
+      </c>
+      <c r="F31">
+        <v>0.002270342686235197</v>
+      </c>
+      <c r="G31">
+        <v>0.0291289657801262</v>
+      </c>
+      <c r="H31">
+        <v>0.05639118037883939</v>
+      </c>
+      <c r="I31">
+        <v>0.0366939992272942</v>
+      </c>
+      <c r="J31">
+        <v>0.04770521132647421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.02335163136954911</v>
+        <v>0.02184606253320531</v>
       </c>
       <c r="C32">
-        <v>0.073722664737851</v>
+        <v>-0.06769703148215232</v>
       </c>
       <c r="D32">
-        <v>0.1188219395522667</v>
+        <v>-0.01302799103293172</v>
       </c>
       <c r="E32">
-        <v>0.08551774301865514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.1369700278043935</v>
+      </c>
+      <c r="F32">
+        <v>-0.02592814131411661</v>
+      </c>
+      <c r="G32">
+        <v>-0.01141281668201301</v>
+      </c>
+      <c r="H32">
+        <v>0.1009944362119509</v>
+      </c>
+      <c r="I32">
+        <v>0.2271201554414243</v>
+      </c>
+      <c r="J32">
+        <v>-0.04062386769485418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.001327241102872862</v>
+        <v>0.008486144636600116</v>
       </c>
       <c r="C33">
-        <v>0.09048820670024703</v>
+        <v>-0.1103755254991764</v>
       </c>
       <c r="D33">
-        <v>0.02824154591181228</v>
+        <v>0.01327575908068839</v>
       </c>
       <c r="E33">
-        <v>0.05828572604704987</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.05696859720366004</v>
+      </c>
+      <c r="F33">
+        <v>0.0009523442468419943</v>
+      </c>
+      <c r="G33">
+        <v>-0.03693019918843701</v>
+      </c>
+      <c r="H33">
+        <v>0.05370857114692049</v>
+      </c>
+      <c r="I33">
+        <v>0.02632503129280024</v>
+      </c>
+      <c r="J33">
+        <v>0.01219393883629352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.001249061869165932</v>
+        <v>0.01136157826264264</v>
       </c>
       <c r="C34">
-        <v>0.05600599239199024</v>
+        <v>-0.05573038715507967</v>
       </c>
       <c r="D34">
-        <v>0.009036316454208928</v>
+        <v>0.01226769798143812</v>
       </c>
       <c r="E34">
-        <v>0.0197218980040593</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01156408279331507</v>
+      </c>
+      <c r="F34">
+        <v>-0.01036827187563933</v>
+      </c>
+      <c r="G34">
+        <v>-0.02736772261250814</v>
+      </c>
+      <c r="H34">
+        <v>0.006154110355567827</v>
+      </c>
+      <c r="I34">
+        <v>0.02242416902061976</v>
+      </c>
+      <c r="J34">
+        <v>0.01403145285226681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.001146181908536888</v>
+        <v>0.005990697779464004</v>
       </c>
       <c r="C35">
-        <v>0.009165741631142315</v>
+        <v>-0.03615152463824493</v>
       </c>
       <c r="D35">
-        <v>0.01041661918854677</v>
+        <v>0.005064776530263475</v>
       </c>
       <c r="E35">
-        <v>0.008126547724355077</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.0450694246778045</v>
+      </c>
+      <c r="F35">
+        <v>-0.0139364026134977</v>
+      </c>
+      <c r="G35">
+        <v>-0.0597657393518975</v>
+      </c>
+      <c r="H35">
+        <v>0.1189568234455094</v>
+      </c>
+      <c r="I35">
+        <v>0.001128324526802719</v>
+      </c>
+      <c r="J35">
+        <v>0.1769709147717577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.002427607229439947</v>
+        <v>0.008967152294487715</v>
       </c>
       <c r="C36">
-        <v>0.04194370660506046</v>
+        <v>-0.04877738692154854</v>
       </c>
       <c r="D36">
-        <v>0.0219140323799463</v>
+        <v>0.02988885643423142</v>
       </c>
       <c r="E36">
-        <v>0.06843863248396252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.05212548237154705</v>
+      </c>
+      <c r="F36">
+        <v>-0.002286256486979976</v>
+      </c>
+      <c r="G36">
+        <v>-0.02328120927786054</v>
+      </c>
+      <c r="H36">
+        <v>0.06487160826913814</v>
+      </c>
+      <c r="I36">
+        <v>0.005924413518332998</v>
+      </c>
+      <c r="J36">
+        <v>-0.02508653357579801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1878,153 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.01078792144108028</v>
+        <v>0.007837251140754091</v>
       </c>
       <c r="C38">
-        <v>0.04786732848175992</v>
+        <v>-0.06499122013152489</v>
       </c>
       <c r="D38">
-        <v>0.02576911230552102</v>
+        <v>0.01989679911056305</v>
       </c>
       <c r="E38">
-        <v>0.05505567202672752</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.05150579337228139</v>
+      </c>
+      <c r="F38">
+        <v>0.04784433799448588</v>
+      </c>
+      <c r="G38">
+        <v>-0.01606423570094836</v>
+      </c>
+      <c r="H38">
+        <v>0.05904895182350351</v>
+      </c>
+      <c r="I38">
+        <v>0.03459564927427349</v>
+      </c>
+      <c r="J38">
+        <v>0.04831633063662381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.001578059170484302</v>
+        <v>0.008189359138468197</v>
       </c>
       <c r="C39">
-        <v>0.1318543232007977</v>
+        <v>-0.1308824525905453</v>
       </c>
       <c r="D39">
-        <v>0.03852301964359034</v>
+        <v>0.03318951526631699</v>
       </c>
       <c r="E39">
-        <v>0.0576300184566404</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.03821822158527282</v>
+      </c>
+      <c r="F39">
+        <v>-0.01926042680519158</v>
+      </c>
+      <c r="G39">
+        <v>-0.04891304777489291</v>
+      </c>
+      <c r="H39">
+        <v>0.04257448073779278</v>
+      </c>
+      <c r="I39">
+        <v>-0.03373637047980536</v>
+      </c>
+      <c r="J39">
+        <v>-0.004957618003102428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.003453566180205172</v>
+        <v>0.01005958424088241</v>
       </c>
       <c r="C40">
-        <v>0.02431073662617196</v>
+        <v>-0.0570733638357858</v>
       </c>
       <c r="D40">
-        <v>0.05186316549255402</v>
+        <v>0.006376943719538294</v>
       </c>
       <c r="E40">
-        <v>0.1230687857891019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1260787462488591</v>
+      </c>
+      <c r="F40">
+        <v>-0.02924929287358767</v>
+      </c>
+      <c r="G40">
+        <v>-0.09523556157399025</v>
+      </c>
+      <c r="H40">
+        <v>-0.007673976534672115</v>
+      </c>
+      <c r="I40">
+        <v>0.02204540739387537</v>
+      </c>
+      <c r="J40">
+        <v>0.1706311687270079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.008840509307303533</v>
+        <v>0.01868547083515605</v>
       </c>
       <c r="C41">
-        <v>0.02151403885364852</v>
+        <v>-0.04897357118772259</v>
       </c>
       <c r="D41">
-        <v>-0.000928603914073186</v>
+        <v>0.007242359271083083</v>
       </c>
       <c r="E41">
-        <v>-0.004965862077022674</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001255552531373595</v>
+      </c>
+      <c r="F41">
+        <v>0.00578063494969256</v>
+      </c>
+      <c r="G41">
+        <v>-0.01145918131042462</v>
+      </c>
+      <c r="H41">
+        <v>0.03459710461208964</v>
+      </c>
+      <c r="I41">
+        <v>0.04189834782850198</v>
+      </c>
+      <c r="J41">
+        <v>0.05940500311146425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2038,89 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.003795317344371333</v>
+        <v>0.01009697077105515</v>
       </c>
       <c r="C43">
-        <v>0.01614344790749069</v>
+        <v>-0.04308097542174008</v>
       </c>
       <c r="D43">
-        <v>0.01534789962452582</v>
+        <v>0.01613751610414346</v>
       </c>
       <c r="E43">
-        <v>0.02825094124855553</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02279195623458587</v>
+      </c>
+      <c r="F43">
+        <v>0.01314652968917676</v>
+      </c>
+      <c r="G43">
+        <v>-0.02869305798781374</v>
+      </c>
+      <c r="H43">
+        <v>0.04707878238841284</v>
+      </c>
+      <c r="I43">
+        <v>0.01491327427192628</v>
+      </c>
+      <c r="J43">
+        <v>0.04399144878307275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01300177938313939</v>
+        <v>0.005427992562243159</v>
       </c>
       <c r="C44">
-        <v>0.07689467344794368</v>
+        <v>-0.08411309756832722</v>
       </c>
       <c r="D44">
-        <v>0.0654102292730183</v>
+        <v>0.03394337753668528</v>
       </c>
       <c r="E44">
-        <v>0.09882340069444172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.1022236917760099</v>
+      </c>
+      <c r="F44">
+        <v>0.007298211298797506</v>
+      </c>
+      <c r="G44">
+        <v>-0.02345021031019538</v>
+      </c>
+      <c r="H44">
+        <v>0.02011708087308348</v>
+      </c>
+      <c r="I44">
+        <v>-0.04111481848674053</v>
+      </c>
+      <c r="J44">
+        <v>-0.04412082453261321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2134,217 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.01663130681522836</v>
+        <v>-0.004831728773362766</v>
       </c>
       <c r="C46">
-        <v>0.0629010464113053</v>
+        <v>-0.06830119860083082</v>
       </c>
       <c r="D46">
-        <v>0.0350308057524697</v>
+        <v>0.02217262888795396</v>
       </c>
       <c r="E46">
-        <v>0.08494746859640077</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.06216053527142592</v>
+      </c>
+      <c r="F46">
+        <v>-0.008403405178677647</v>
+      </c>
+      <c r="G46">
+        <v>-0.07052199262663994</v>
+      </c>
+      <c r="H46">
+        <v>0.1191287239201019</v>
+      </c>
+      <c r="I46">
+        <v>-0.008377955312785127</v>
+      </c>
+      <c r="J46">
+        <v>0.1070011929232617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.007745398411328273</v>
+        <v>0.01945518453899908</v>
       </c>
       <c r="C47">
-        <v>0.1113042695946508</v>
+        <v>-0.09877522462109906</v>
       </c>
       <c r="D47">
-        <v>-0.01879302292402161</v>
+        <v>0.02630117622329426</v>
       </c>
       <c r="E47">
-        <v>-0.03273937206447662</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01141055709711325</v>
+      </c>
+      <c r="F47">
+        <v>0.006447978905312909</v>
+      </c>
+      <c r="G47">
+        <v>0.007313606339440897</v>
+      </c>
+      <c r="H47">
+        <v>0.0872901209686206</v>
+      </c>
+      <c r="I47">
+        <v>0.0368515974503975</v>
+      </c>
+      <c r="J47">
+        <v>0.02325036046379868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.009399571521679386</v>
+        <v>0.01543458404511952</v>
       </c>
       <c r="C48">
-        <v>0.04616666158843175</v>
+        <v>-0.05581545958306917</v>
       </c>
       <c r="D48">
-        <v>0.006547514279070871</v>
+        <v>0.03919869993474551</v>
       </c>
       <c r="E48">
-        <v>0.07276327886126817</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04875139549513671</v>
+      </c>
+      <c r="F48">
+        <v>0.0001253186004779421</v>
+      </c>
+      <c r="G48">
+        <v>-0.02734230753236107</v>
+      </c>
+      <c r="H48">
+        <v>0.1102452834427777</v>
+      </c>
+      <c r="I48">
+        <v>0.004830134152779412</v>
+      </c>
+      <c r="J48">
+        <v>-0.07191114871447149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.00524863368271268</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.008287522039934018</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.009368248676589259</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.004139098551020452</v>
+      </c>
+      <c r="F49">
+        <v>-0.008364309248905948</v>
+      </c>
+      <c r="G49">
+        <v>-0.01535503332640976</v>
+      </c>
+      <c r="H49">
+        <v>-0.01246263609642021</v>
+      </c>
+      <c r="I49">
+        <v>-0.003196274565029215</v>
+      </c>
+      <c r="J49">
+        <v>-0.004862392242008921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.004774383967854815</v>
+        <v>0.01147386860664861</v>
       </c>
       <c r="C50">
-        <v>0.09286664397552127</v>
+        <v>-0.09064211311121018</v>
       </c>
       <c r="D50">
-        <v>-0.01080280825483545</v>
+        <v>0.01297987857344184</v>
       </c>
       <c r="E50">
-        <v>0.0001703841896745835</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0003028700090134652</v>
+      </c>
+      <c r="F50">
+        <v>0.01803371918392557</v>
+      </c>
+      <c r="G50">
+        <v>0.02391231455829089</v>
+      </c>
+      <c r="H50">
+        <v>0.06539018036586945</v>
+      </c>
+      <c r="I50">
+        <v>0.06194664999935326</v>
+      </c>
+      <c r="J50">
+        <v>0.03748202544694626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.003832612816296489</v>
+        <v>-0.005370275563833318</v>
       </c>
       <c r="C51">
-        <v>0.05512864634861298</v>
+        <v>-0.03948222670091605</v>
       </c>
       <c r="D51">
-        <v>0.06843915469343347</v>
+        <v>0.009043084828969461</v>
       </c>
       <c r="E51">
-        <v>0.06922104364596525</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05507986151261757</v>
+      </c>
+      <c r="F51">
+        <v>-0.004810156531490594</v>
+      </c>
+      <c r="G51">
+        <v>-0.01181346243388048</v>
+      </c>
+      <c r="H51">
+        <v>0.08791827053294211</v>
+      </c>
+      <c r="I51">
+        <v>-0.0296861433385966</v>
+      </c>
+      <c r="J51">
+        <v>-0.1180047594384424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2358,153 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.04092527338245212</v>
+        <v>0.05055755441680204</v>
       </c>
       <c r="C53">
-        <v>0.1636091811422841</v>
+        <v>-0.149514996993407</v>
       </c>
       <c r="D53">
-        <v>-0.06596289127389318</v>
+        <v>0.04624566617865337</v>
       </c>
       <c r="E53">
-        <v>-0.05411830498941286</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.09084531409120386</v>
+      </c>
+      <c r="F53">
+        <v>0.007417230417565487</v>
+      </c>
+      <c r="G53">
+        <v>0.04979237402653642</v>
+      </c>
+      <c r="H53">
+        <v>0.008876427317355308</v>
+      </c>
+      <c r="I53">
+        <v>0.04939468886783122</v>
+      </c>
+      <c r="J53">
+        <v>0.0176243860525816</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.006071695474169143</v>
+        <v>0.01352495593388729</v>
       </c>
       <c r="C54">
-        <v>0.05612360072664908</v>
+        <v>-0.07092630607213318</v>
       </c>
       <c r="D54">
-        <v>0.04604844805699222</v>
+        <v>-0.007688134444967308</v>
       </c>
       <c r="E54">
-        <v>0.02150725185579105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.03054198902961317</v>
+      </c>
+      <c r="F54">
+        <v>0.004610049679657512</v>
+      </c>
+      <c r="G54">
+        <v>-0.01961127284822541</v>
+      </c>
+      <c r="H54">
+        <v>0.07891803771494239</v>
+      </c>
+      <c r="I54">
+        <v>-0.01460625119724623</v>
+      </c>
+      <c r="J54">
+        <v>0.04003858155829157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02446735178236141</v>
+        <v>0.02785097599045334</v>
       </c>
       <c r="C55">
-        <v>0.1247917162105156</v>
+        <v>-0.1084632661326189</v>
       </c>
       <c r="D55">
-        <v>-0.05979422414144064</v>
+        <v>0.04853266203485467</v>
       </c>
       <c r="E55">
-        <v>-0.01630511696776338</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.06286197145149926</v>
+      </c>
+      <c r="F55">
+        <v>-0.008585762668055223</v>
+      </c>
+      <c r="G55">
+        <v>0.0265900953477425</v>
+      </c>
+      <c r="H55">
+        <v>0.01983035862601967</v>
+      </c>
+      <c r="I55">
+        <v>0.007842990847403945</v>
+      </c>
+      <c r="J55">
+        <v>0.005082466116320278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.0446346345555837</v>
+        <v>0.04360451063625485</v>
       </c>
       <c r="C56">
-        <v>0.1979056084426195</v>
+        <v>-0.179141586395982</v>
       </c>
       <c r="D56">
-        <v>-0.09008056275312243</v>
+        <v>0.07020955595278991</v>
       </c>
       <c r="E56">
-        <v>-0.08337023351494605</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.1279730187544567</v>
+      </c>
+      <c r="F56">
+        <v>0.003295567813109987</v>
+      </c>
+      <c r="G56">
+        <v>0.1059581323558355</v>
+      </c>
+      <c r="H56">
+        <v>0.007834294153253346</v>
+      </c>
+      <c r="I56">
+        <v>0.04298423757064931</v>
+      </c>
+      <c r="J56">
+        <v>-0.02705088374806549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2518,409 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01284699149826241</v>
+        <v>0.009087235713055898</v>
       </c>
       <c r="C58">
-        <v>0.1789217087177619</v>
+        <v>-0.1678547199870317</v>
       </c>
       <c r="D58">
-        <v>0.2494987185077265</v>
+        <v>-0.02055733466436073</v>
       </c>
       <c r="E58">
-        <v>0.1644426360617054</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.2836326551378203</v>
+      </c>
+      <c r="F58">
+        <v>0.08912781672852187</v>
+      </c>
+      <c r="G58">
+        <v>0.1773311551801352</v>
+      </c>
+      <c r="H58">
+        <v>-0.02353974842737988</v>
+      </c>
+      <c r="I58">
+        <v>-0.07632553044270739</v>
+      </c>
+      <c r="J58">
+        <v>-0.3348318944197654</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.2596614605943258</v>
+        <v>0.2763796988372105</v>
       </c>
       <c r="C59">
-        <v>-0.01298719784476292</v>
+        <v>0.03179087094537876</v>
       </c>
       <c r="D59">
-        <v>0.06276360970925955</v>
+        <v>-0.01069300922241599</v>
       </c>
       <c r="E59">
-        <v>0.01327134288590859</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.05073530649687286</v>
+      </c>
+      <c r="F59">
+        <v>-0.01426099267363658</v>
+      </c>
+      <c r="G59">
+        <v>0.01084221047557861</v>
+      </c>
+      <c r="H59">
+        <v>-0.02244976993757317</v>
+      </c>
+      <c r="I59">
+        <v>0.09983392107976204</v>
+      </c>
+      <c r="J59">
+        <v>-0.01028899924375429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.118813865988977</v>
+        <v>0.1461085923623289</v>
       </c>
       <c r="C60">
-        <v>0.1601582784498427</v>
+        <v>-0.1665014610769336</v>
       </c>
       <c r="D60">
-        <v>-0.06296302902456226</v>
+        <v>0.03362862744316005</v>
       </c>
       <c r="E60">
-        <v>-0.01979658281482901</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.06042619586436843</v>
+      </c>
+      <c r="F60">
+        <v>-0.1248826050004442</v>
+      </c>
+      <c r="G60">
+        <v>-0.2420871697464183</v>
+      </c>
+      <c r="H60">
+        <v>-0.2789240111727356</v>
+      </c>
+      <c r="I60">
+        <v>-0.06748969722987921</v>
+      </c>
+      <c r="J60">
+        <v>-0.01229399746418505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.003836425316518051</v>
+        <v>0.01400543927174265</v>
       </c>
       <c r="C61">
-        <v>0.09551527438524737</v>
+        <v>-0.106669380824434</v>
       </c>
       <c r="D61">
-        <v>0.002955830672456262</v>
+        <v>0.03185843784048186</v>
       </c>
       <c r="E61">
-        <v>0.03247019597456916</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01612617719342459</v>
+      </c>
+      <c r="F61">
+        <v>-0.008485645110295509</v>
+      </c>
+      <c r="G61">
+        <v>-0.05004888520702515</v>
+      </c>
+      <c r="H61">
+        <v>0.04770994476354831</v>
+      </c>
+      <c r="I61">
+        <v>-0.004985466486458543</v>
+      </c>
+      <c r="J61">
+        <v>0.0359585985554974</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006543699918551455</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.005432372086314624</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.005373956669451896</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.01082006797713531</v>
+      </c>
+      <c r="F62">
+        <v>-0.00669910460970919</v>
+      </c>
+      <c r="G62">
+        <v>-0.01621803184422908</v>
+      </c>
+      <c r="H62">
+        <v>0.01474658781631573</v>
+      </c>
+      <c r="I62">
+        <v>-0.00548298741908983</v>
+      </c>
+      <c r="J62">
+        <v>0.005456245382283178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.007073575313700499</v>
+        <v>0.01603338364126515</v>
       </c>
       <c r="C63">
-        <v>0.0597632804294712</v>
+        <v>-0.07424111312692609</v>
       </c>
       <c r="D63">
-        <v>0.02076675827128836</v>
+        <v>0.03294868456795495</v>
       </c>
       <c r="E63">
-        <v>0.03452358529022034</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.03173292988937575</v>
+      </c>
+      <c r="F63">
+        <v>-0.00807927886913677</v>
+      </c>
+      <c r="G63">
+        <v>-0.03873625604063521</v>
+      </c>
+      <c r="H63">
+        <v>0.06795926045787411</v>
+      </c>
+      <c r="I63">
+        <v>0.02316324496382655</v>
+      </c>
+      <c r="J63">
+        <v>0.01627976154879017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.005282420987756795</v>
+        <v>0.01295709828784355</v>
       </c>
       <c r="C64">
-        <v>0.1262353079913334</v>
+        <v>-0.1065992001517485</v>
       </c>
       <c r="D64">
-        <v>-0.04675962302717335</v>
+        <v>0.02327041071175355</v>
       </c>
       <c r="E64">
-        <v>0.0176342897275514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0009072385162546866</v>
+      </c>
+      <c r="F64">
+        <v>0.02685507352023696</v>
+      </c>
+      <c r="G64">
+        <v>-0.01571520478261188</v>
+      </c>
+      <c r="H64">
+        <v>0.01601784777999337</v>
+      </c>
+      <c r="I64">
+        <v>-0.003963223229576126</v>
+      </c>
+      <c r="J64">
+        <v>0.04285546797765279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01625608847021747</v>
+        <v>0.02532427707167246</v>
       </c>
       <c r="C65">
-        <v>0.07109447464706407</v>
+        <v>-0.08783582518459247</v>
       </c>
       <c r="D65">
-        <v>0.04674381631046508</v>
+        <v>-0.004296700354449472</v>
       </c>
       <c r="E65">
-        <v>0.06393521503354185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.07951888982761061</v>
+      </c>
+      <c r="F65">
+        <v>0.007029518459937534</v>
+      </c>
+      <c r="G65">
+        <v>-0.09304289657324802</v>
+      </c>
+      <c r="H65">
+        <v>-0.0174832839956269</v>
+      </c>
+      <c r="I65">
+        <v>-0.05986797773544799</v>
+      </c>
+      <c r="J65">
+        <v>-0.02406642796823525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.00248453726485058</v>
+        <v>0.005868012791605609</v>
       </c>
       <c r="C66">
-        <v>0.1532765320193625</v>
+        <v>-0.1596430037777999</v>
       </c>
       <c r="D66">
-        <v>0.06810731095434258</v>
+        <v>0.01596144344652132</v>
       </c>
       <c r="E66">
-        <v>0.0791197809439132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06246194948744582</v>
+      </c>
+      <c r="F66">
+        <v>-0.006119214775135912</v>
+      </c>
+      <c r="G66">
+        <v>-0.02844168205549254</v>
+      </c>
+      <c r="H66">
+        <v>0.03999172245380149</v>
+      </c>
+      <c r="I66">
+        <v>-0.02732316210621798</v>
+      </c>
+      <c r="J66">
+        <v>-0.003033898074525954</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.01714316476672702</v>
+        <v>0.01761921266234237</v>
       </c>
       <c r="C67">
-        <v>0.04453197658997003</v>
+        <v>-0.0597012345896896</v>
       </c>
       <c r="D67">
-        <v>-0.0231693951467291</v>
+        <v>0.03139752979653118</v>
       </c>
       <c r="E67">
-        <v>0.02888958595213782</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01278172841820121</v>
+      </c>
+      <c r="F67">
+        <v>0.03358084306267334</v>
+      </c>
+      <c r="G67">
+        <v>-0.0422173068065616</v>
+      </c>
+      <c r="H67">
+        <v>0.03890030888909055</v>
+      </c>
+      <c r="I67">
+        <v>0.0280634755167356</v>
+      </c>
+      <c r="J67">
+        <v>0.06527016709634285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2635993497875395</v>
+        <v>0.2881720362879164</v>
       </c>
       <c r="C68">
-        <v>-0.03296526759569949</v>
+        <v>0.04053062141425697</v>
       </c>
       <c r="D68">
-        <v>0.05943899839336814</v>
+        <v>-0.03469346847772182</v>
       </c>
       <c r="E68">
-        <v>0.01537964388155153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.06058236852659919</v>
+      </c>
+      <c r="F68">
+        <v>0.01806287025490098</v>
+      </c>
+      <c r="G68">
+        <v>0.04248801129051288</v>
+      </c>
+      <c r="H68">
+        <v>-0.02368391037243351</v>
+      </c>
+      <c r="I68">
+        <v>0.08322086048752368</v>
+      </c>
+      <c r="J68">
+        <v>0.002117886776103738</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01225671150487561</v>
+        <v>0.008852722620743204</v>
       </c>
       <c r="C69">
-        <v>0.105843172736802</v>
+        <v>-0.08004876212417715</v>
       </c>
       <c r="D69">
-        <v>-0.04454955726736338</v>
+        <v>0.02294847440360791</v>
       </c>
       <c r="E69">
-        <v>0.01341385739440729</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01131902585471849</v>
+      </c>
+      <c r="F69">
+        <v>0.009373465061705803</v>
+      </c>
+      <c r="G69">
+        <v>-0.0002723761764562971</v>
+      </c>
+      <c r="H69">
+        <v>0.06289818970245144</v>
+      </c>
+      <c r="I69">
+        <v>0.03163288424833507</v>
+      </c>
+      <c r="J69">
+        <v>0.008273958172328292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2934,825 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2738390166048921</v>
+        <v>0.2744730535534186</v>
       </c>
       <c r="C71">
-        <v>-0.04408346707764453</v>
+        <v>0.06214326845707876</v>
       </c>
       <c r="D71">
-        <v>0.05443054371496931</v>
+        <v>-0.01831470769539315</v>
       </c>
       <c r="E71">
-        <v>-0.02178926987528475</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.04193550545811254</v>
+      </c>
+      <c r="F71">
+        <v>0.03727793372820606</v>
+      </c>
+      <c r="G71">
+        <v>-0.0008667800021838871</v>
+      </c>
+      <c r="H71">
+        <v>0.05185590321970765</v>
+      </c>
+      <c r="I71">
+        <v>0.109868102740214</v>
+      </c>
+      <c r="J71">
+        <v>-0.08770945149677303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.05398950745588111</v>
+        <v>0.05741579487710691</v>
       </c>
       <c r="C72">
-        <v>0.1854525965742001</v>
+        <v>-0.1595104093341848</v>
       </c>
       <c r="D72">
-        <v>-0.0328213193829067</v>
+        <v>0.01953110445137942</v>
       </c>
       <c r="E72">
-        <v>0.06083179213766916</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01774457685519159</v>
+      </c>
+      <c r="F72">
+        <v>-0.01781343226137518</v>
+      </c>
+      <c r="G72">
+        <v>-0.02434939490776906</v>
+      </c>
+      <c r="H72">
+        <v>-0.04469373402245676</v>
+      </c>
+      <c r="I72">
+        <v>-0.08721109561031672</v>
+      </c>
+      <c r="J72">
+        <v>0.0406572359936283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.09193641883213649</v>
+        <v>0.1443175528595446</v>
       </c>
       <c r="C73">
-        <v>0.166039318793602</v>
+        <v>-0.2086376892883507</v>
       </c>
       <c r="D73">
-        <v>-0.09955817109622464</v>
+        <v>0.05431496944200406</v>
       </c>
       <c r="E73">
-        <v>-0.02187114445268478</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.1086138598349923</v>
+      </c>
+      <c r="F73">
+        <v>-0.1515686088777796</v>
+      </c>
+      <c r="G73">
+        <v>-0.4039598926311808</v>
+      </c>
+      <c r="H73">
+        <v>-0.3041790597403259</v>
+      </c>
+      <c r="I73">
+        <v>0.01531403542256206</v>
+      </c>
+      <c r="J73">
+        <v>-0.1011102664324649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.0285890365933227</v>
+        <v>0.0361301586791515</v>
       </c>
       <c r="C74">
-        <v>0.1183961707711707</v>
+        <v>-0.1161180228861268</v>
       </c>
       <c r="D74">
-        <v>-0.0922452764966042</v>
+        <v>0.04358954681693965</v>
       </c>
       <c r="E74">
-        <v>-0.04686818884644157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.07780117248540078</v>
+      </c>
+      <c r="F74">
+        <v>0.006243881870849535</v>
+      </c>
+      <c r="G74">
+        <v>0.03084420040966458</v>
+      </c>
+      <c r="H74">
+        <v>0.01806767497676007</v>
+      </c>
+      <c r="I74">
+        <v>0.01221471498209678</v>
+      </c>
+      <c r="J74">
+        <v>-7.644303865076435e-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09474059005240507</v>
+        <v>0.06916293684818685</v>
       </c>
       <c r="C75">
-        <v>0.2152498694140237</v>
+        <v>-0.195255012954391</v>
       </c>
       <c r="D75">
-        <v>-0.206187057362325</v>
+        <v>0.08809165325591546</v>
       </c>
       <c r="E75">
-        <v>-0.1410431478431277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.2282272568496631</v>
+      </c>
+      <c r="F75">
+        <v>0.09548692370237474</v>
+      </c>
+      <c r="G75">
+        <v>0.1402807752731471</v>
+      </c>
+      <c r="H75">
+        <v>-0.002243609264059869</v>
+      </c>
+      <c r="I75">
+        <v>0.07780833679719988</v>
+      </c>
+      <c r="J75">
+        <v>0.04713298898666142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.0411158751189942</v>
+        <v>0.0395051353747278</v>
       </c>
       <c r="C76">
-        <v>0.1497331828940164</v>
+        <v>-0.1435703150848482</v>
       </c>
       <c r="D76">
-        <v>-0.1024239324370466</v>
+        <v>0.07364276478530415</v>
       </c>
       <c r="E76">
-        <v>-0.04700683522547217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.1083257466771115</v>
+      </c>
+      <c r="F76">
+        <v>0.001286566801149177</v>
+      </c>
+      <c r="G76">
+        <v>0.02918026340366953</v>
+      </c>
+      <c r="H76">
+        <v>0.0199893602266037</v>
+      </c>
+      <c r="I76">
+        <v>0.01967774377864456</v>
+      </c>
+      <c r="J76">
+        <v>0.0208480476890971</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.03114810744650381</v>
+        <v>0.02391006316231785</v>
       </c>
       <c r="C77">
-        <v>0.1645092296365332</v>
+        <v>-0.24499666784529</v>
       </c>
       <c r="D77">
-        <v>0.6081780205973016</v>
+        <v>-0.9459553520262901</v>
       </c>
       <c r="E77">
-        <v>-0.6992687813892662</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.1585124725348437</v>
+      </c>
+      <c r="F77">
+        <v>0.02467075726341074</v>
+      </c>
+      <c r="G77">
+        <v>-0.003206575653104117</v>
+      </c>
+      <c r="H77">
+        <v>0.05240681018434893</v>
+      </c>
+      <c r="I77">
+        <v>-0.01973966240079142</v>
+      </c>
+      <c r="J77">
+        <v>0.007575501505527056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.02509522228077912</v>
+        <v>0.02555898542372805</v>
       </c>
       <c r="C78">
-        <v>0.1529038694508469</v>
+        <v>-0.1256721490182047</v>
       </c>
       <c r="D78">
-        <v>0.06459383699201637</v>
+        <v>0.06111169803485631</v>
       </c>
       <c r="E78">
-        <v>0.102266628564688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04503779130287195</v>
+      </c>
+      <c r="F78">
+        <v>-0.007249708610036068</v>
+      </c>
+      <c r="G78">
+        <v>0.08825584337038085</v>
+      </c>
+      <c r="H78">
+        <v>0.1277973898720365</v>
+      </c>
+      <c r="I78">
+        <v>-0.1628598790424702</v>
+      </c>
+      <c r="J78">
+        <v>-0.4983319719898174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05661978691468013</v>
+        <v>0.05736105064107513</v>
       </c>
       <c r="C79">
-        <v>0.2508893650213972</v>
+        <v>-0.1889750131225375</v>
       </c>
       <c r="D79">
-        <v>-0.185667317407933</v>
+        <v>0.07092080308553809</v>
       </c>
       <c r="E79">
-        <v>-0.1150113310473677</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1820857531915884</v>
+      </c>
+      <c r="F79">
+        <v>0.02785772790349176</v>
+      </c>
+      <c r="G79">
+        <v>0.1914924957804072</v>
+      </c>
+      <c r="H79">
+        <v>0.05228501724403982</v>
+      </c>
+      <c r="I79">
+        <v>0.08034381083222371</v>
+      </c>
+      <c r="J79">
+        <v>-0.01717728178941024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.01689254350859687</v>
+        <v>0.005986921313505676</v>
       </c>
       <c r="C80">
-        <v>0.06997768160402097</v>
+        <v>-0.06358740305531131</v>
       </c>
       <c r="D80">
-        <v>-0.02580601334768223</v>
+        <v>0.04058034104737229</v>
       </c>
       <c r="E80">
-        <v>0.0196605004856373</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03210754259327897</v>
+      </c>
+      <c r="F80">
+        <v>-0.07387759652184596</v>
+      </c>
+      <c r="G80">
+        <v>-0.03755765640970931</v>
+      </c>
+      <c r="H80">
+        <v>-0.04369102061994727</v>
+      </c>
+      <c r="I80">
+        <v>0.06117259247488604</v>
+      </c>
+      <c r="J80">
+        <v>0.07475554754043061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.0345095692794538</v>
+        <v>0.02245372308453411</v>
       </c>
       <c r="C81">
-        <v>0.1313097665242774</v>
+        <v>-0.1193175495608714</v>
       </c>
       <c r="D81">
-        <v>-0.130502959512682</v>
+        <v>0.04676290953566442</v>
       </c>
       <c r="E81">
-        <v>-0.1007595493279165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.1036381444319837</v>
+      </c>
+      <c r="F81">
+        <v>0.02484259380213603</v>
+      </c>
+      <c r="G81">
+        <v>0.09526056752308622</v>
+      </c>
+      <c r="H81">
+        <v>0.07466164934022974</v>
+      </c>
+      <c r="I81">
+        <v>0.08843291750393856</v>
+      </c>
+      <c r="J81">
+        <v>0.02836593857897683</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05803214948092864</v>
+        <v>0.04970382877660458</v>
       </c>
       <c r="C82">
-        <v>0.1578315475034742</v>
+        <v>-0.1336828156318781</v>
       </c>
       <c r="D82">
-        <v>-0.1369814282859373</v>
+        <v>0.07097574378166432</v>
       </c>
       <c r="E82">
-        <v>-0.06878073861284204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1211005514837214</v>
+      </c>
+      <c r="F82">
+        <v>0.007936063890813163</v>
+      </c>
+      <c r="G82">
+        <v>0.06325384224028215</v>
+      </c>
+      <c r="H82">
+        <v>0.03788462728941048</v>
+      </c>
+      <c r="I82">
+        <v>0.05558408058884327</v>
+      </c>
+      <c r="J82">
+        <v>0.0134454988165108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.01382826066483531</v>
+        <v>0.004328850079773084</v>
       </c>
       <c r="C83">
-        <v>0.06162730239295369</v>
+        <v>-0.01167430423774283</v>
       </c>
       <c r="D83">
-        <v>0.05370310764900908</v>
+        <v>-0.04355164457489128</v>
       </c>
       <c r="E83">
-        <v>0.02043118260062905</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08620009519279642</v>
+      </c>
+      <c r="F83">
+        <v>-0.8959749797684929</v>
+      </c>
+      <c r="G83">
+        <v>0.3274656537345152</v>
+      </c>
+      <c r="H83">
+        <v>-0.02937954697255177</v>
+      </c>
+      <c r="I83">
+        <v>0.1274305895238322</v>
+      </c>
+      <c r="J83">
+        <v>0.00784413108155016</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.003588485010253305</v>
+        <v>-0.002072036981890255</v>
       </c>
       <c r="C84">
-        <v>0.03089033420299525</v>
+        <v>-0.03785266154064771</v>
       </c>
       <c r="D84">
-        <v>0.03379082798324992</v>
+        <v>0.04413277894271832</v>
       </c>
       <c r="E84">
-        <v>0.08083183906912832</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.07604082457664603</v>
+      </c>
+      <c r="F84">
+        <v>0.05515702660860163</v>
+      </c>
+      <c r="G84">
+        <v>0.03817735137403317</v>
+      </c>
+      <c r="H84">
+        <v>0.05499293539587822</v>
+      </c>
+      <c r="I84">
+        <v>-0.05051138068184199</v>
+      </c>
+      <c r="J84">
+        <v>0.07920173690264612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.03971254725843115</v>
+        <v>0.03136424227333499</v>
       </c>
       <c r="C85">
-        <v>0.1739766970971744</v>
+        <v>-0.1424762856581508</v>
       </c>
       <c r="D85">
-        <v>-0.1497895265782328</v>
+        <v>0.08447056553697781</v>
       </c>
       <c r="E85">
-        <v>-0.07940777142832545</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1742671105768138</v>
+      </c>
+      <c r="F85">
+        <v>0.01736231441097559</v>
+      </c>
+      <c r="G85">
+        <v>0.1197739905401953</v>
+      </c>
+      <c r="H85">
+        <v>0.0281587015333794</v>
+      </c>
+      <c r="I85">
+        <v>0.07724596745976764</v>
+      </c>
+      <c r="J85">
+        <v>0.03637362587075817</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0304405596425887</v>
+        <v>0.01780765844384184</v>
       </c>
       <c r="C86">
-        <v>0.04710055989525547</v>
+        <v>-0.07052559618720325</v>
       </c>
       <c r="D86">
-        <v>0.09686843663131524</v>
+        <v>-0.005855310751862621</v>
       </c>
       <c r="E86">
-        <v>0.00390622939785338</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.07062971152358045</v>
+      </c>
+      <c r="F86">
+        <v>0.05853065022179814</v>
+      </c>
+      <c r="G86">
+        <v>0.05761914459994191</v>
+      </c>
+      <c r="H86">
+        <v>0.07022086523327384</v>
+      </c>
+      <c r="I86">
+        <v>0.05082419002626253</v>
+      </c>
+      <c r="J86">
+        <v>-0.1888739144930644</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02367843759082003</v>
+        <v>0.01528092910046676</v>
       </c>
       <c r="C87">
-        <v>0.1220947390559576</v>
+        <v>-0.1231974380495206</v>
       </c>
       <c r="D87">
-        <v>0.1103581393292296</v>
+        <v>-0.01739880066864412</v>
       </c>
       <c r="E87">
-        <v>0.1002633283446516</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.1070015988442069</v>
+      </c>
+      <c r="F87">
+        <v>0.02046254543166726</v>
+      </c>
+      <c r="G87">
+        <v>0.01622227452878644</v>
+      </c>
+      <c r="H87">
+        <v>0.006859140642595784</v>
+      </c>
+      <c r="I87">
+        <v>-0.1422507546892647</v>
+      </c>
+      <c r="J87">
+        <v>-0.08940490874116755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.02219299935177078</v>
+        <v>0.03478731159713361</v>
       </c>
       <c r="C88">
-        <v>0.07366348447425725</v>
+        <v>-0.08305334301533859</v>
       </c>
       <c r="D88">
-        <v>-0.05534036258935586</v>
+        <v>0.02784324546213234</v>
       </c>
       <c r="E88">
-        <v>-0.006526950636514726</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01595743979785204</v>
+      </c>
+      <c r="F88">
+        <v>0.008333618102235497</v>
+      </c>
+      <c r="G88">
+        <v>-0.02374485834712214</v>
+      </c>
+      <c r="H88">
+        <v>0.006425812473323308</v>
+      </c>
+      <c r="I88">
+        <v>0.02661221775740989</v>
+      </c>
+      <c r="J88">
+        <v>0.07461801213736836</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.44631223021814</v>
+        <v>0.4087038335292951</v>
       </c>
       <c r="C89">
-        <v>-0.09309761204928955</v>
+        <v>0.1125686170664525</v>
       </c>
       <c r="D89">
-        <v>-0.04760017941672428</v>
+        <v>-0.01033988734120158</v>
       </c>
       <c r="E89">
-        <v>0.2707781964579399</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05737569404373106</v>
+      </c>
+      <c r="F89">
+        <v>-0.08764585070006807</v>
+      </c>
+      <c r="G89">
+        <v>0.0947828505082401</v>
+      </c>
+      <c r="H89">
+        <v>0.0509377534594523</v>
+      </c>
+      <c r="I89">
+        <v>-0.7538362217409423</v>
+      </c>
+      <c r="J89">
+        <v>0.1409786614769376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3233521278494665</v>
+        <v>0.3236271885595268</v>
       </c>
       <c r="C90">
-        <v>-0.04518299519255839</v>
+        <v>0.06202702169681536</v>
       </c>
       <c r="D90">
-        <v>0.06498871442999993</v>
+        <v>-0.01847392364303227</v>
       </c>
       <c r="E90">
-        <v>-0.01219273735207646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.03751455366841036</v>
+      </c>
+      <c r="F90">
+        <v>0.02144217881914316</v>
+      </c>
+      <c r="G90">
+        <v>0.02213126214384366</v>
+      </c>
+      <c r="H90">
+        <v>-0.009140200538445505</v>
+      </c>
+      <c r="I90">
+        <v>0.1548645127817896</v>
+      </c>
+      <c r="J90">
+        <v>-0.007763166983506186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.0427615488764955</v>
+        <v>0.05056774014468617</v>
       </c>
       <c r="C91">
-        <v>0.1388140224065446</v>
+        <v>-0.1192384009690227</v>
       </c>
       <c r="D91">
-        <v>-0.08622379649849737</v>
+        <v>0.03684334530449599</v>
       </c>
       <c r="E91">
-        <v>-0.06088501666457998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09536784884779034</v>
+      </c>
+      <c r="F91">
+        <v>-0.0233332257162897</v>
+      </c>
+      <c r="G91">
+        <v>0.07121851693714955</v>
+      </c>
+      <c r="H91">
+        <v>0.01609603670358221</v>
+      </c>
+      <c r="I91">
+        <v>0.0289535283243921</v>
+      </c>
+      <c r="J91">
+        <v>0.03161542326960631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3466737761089078</v>
+        <v>0.3493243366421435</v>
       </c>
       <c r="C92">
-        <v>-0.1002247151578239</v>
+        <v>0.1129256413852769</v>
       </c>
       <c r="D92">
-        <v>0.07109302078892665</v>
+        <v>-0.04635395328555535</v>
       </c>
       <c r="E92">
-        <v>-0.02535295626225896</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06582605836269761</v>
+      </c>
+      <c r="F92">
+        <v>0.1030003671692402</v>
+      </c>
+      <c r="G92">
+        <v>-0.001826481749579533</v>
+      </c>
+      <c r="H92">
+        <v>0.04308736602506333</v>
+      </c>
+      <c r="I92">
+        <v>0.1493217806563376</v>
+      </c>
+      <c r="J92">
+        <v>0.01343248122775977</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3339114005837643</v>
+        <v>0.3242838476261132</v>
       </c>
       <c r="C93">
-        <v>-0.08018427899892215</v>
+        <v>0.1041693416777912</v>
       </c>
       <c r="D93">
-        <v>-0.01390808754463817</v>
+        <v>0.003874876369753777</v>
       </c>
       <c r="E93">
-        <v>-0.02188198544642944</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-3.250309223902615e-06</v>
+      </c>
+      <c r="F93">
+        <v>0.02204706166932392</v>
+      </c>
+      <c r="G93">
+        <v>0.02780582066482505</v>
+      </c>
+      <c r="H93">
+        <v>0.03827940847464451</v>
+      </c>
+      <c r="I93">
+        <v>0.1176061203959631</v>
+      </c>
+      <c r="J93">
+        <v>-0.04635703588999166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09317105332206714</v>
+        <v>0.08542558935113441</v>
       </c>
       <c r="C94">
-        <v>0.2362075164937305</v>
+        <v>-0.201603530901639</v>
       </c>
       <c r="D94">
-        <v>-0.262497474419946</v>
+        <v>0.1159068434540555</v>
       </c>
       <c r="E94">
-        <v>-0.1255009221501798</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3372446600072906</v>
+      </c>
+      <c r="F94">
+        <v>0.06288371229561296</v>
+      </c>
+      <c r="G94">
+        <v>0.3512013679774351</v>
+      </c>
+      <c r="H94">
+        <v>-0.05781563609044252</v>
+      </c>
+      <c r="I94">
+        <v>-0.2051601485855232</v>
+      </c>
+      <c r="J94">
+        <v>0.1772929569582942</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02409337555058843</v>
+        <v>0.03181289319204143</v>
       </c>
       <c r="C95">
-        <v>0.07054822388827965</v>
+        <v>-0.1137169551612669</v>
       </c>
       <c r="D95">
-        <v>-0.009312203246429056</v>
+        <v>0.008139951897716298</v>
       </c>
       <c r="E95">
-        <v>0.00538657039776635</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.001494110914960746</v>
+      </c>
+      <c r="F95">
+        <v>0.01183393096359446</v>
+      </c>
+      <c r="G95">
+        <v>-0.123480156397503</v>
+      </c>
+      <c r="H95">
+        <v>0.05488371659558561</v>
+      </c>
+      <c r="I95">
+        <v>-0.01028206780131086</v>
+      </c>
+      <c r="J95">
+        <v>0.124627979796063</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3766,121 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.00456520869916009</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.008592120201806558</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.02019616429953537</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.01762493075440491</v>
+      </c>
+      <c r="F97">
+        <v>0.01186610516606205</v>
+      </c>
+      <c r="G97">
+        <v>-0.03543007985181348</v>
+      </c>
+      <c r="H97">
+        <v>-0.01285270501118234</v>
+      </c>
+      <c r="I97">
+        <v>0.005877608473420003</v>
+      </c>
+      <c r="J97">
+        <v>-0.007473770413332062</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.07735007400496696</v>
+        <v>0.126612567594706</v>
       </c>
       <c r="C98">
-        <v>0.1555368645800286</v>
+        <v>-0.1757462176428858</v>
       </c>
       <c r="D98">
-        <v>-0.03839679285764038</v>
+        <v>0.05784887687339555</v>
       </c>
       <c r="E98">
-        <v>-0.008865528753087291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07261410592239347</v>
+      </c>
+      <c r="F98">
+        <v>-0.105565865025044</v>
+      </c>
+      <c r="G98">
+        <v>-0.3483549306826127</v>
+      </c>
+      <c r="H98">
+        <v>-0.3421906727171996</v>
+      </c>
+      <c r="I98">
+        <v>-0.03381266222783396</v>
+      </c>
+      <c r="J98">
+        <v>-0.1366790689837631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.001769022598395228</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.009946585402392518</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.008313938701632027</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.002299127179553773</v>
+      </c>
+      <c r="F99">
+        <v>0.0006361798589517171</v>
+      </c>
+      <c r="G99">
+        <v>-0.0004125164739698846</v>
+      </c>
+      <c r="H99">
+        <v>0.02816850148395789</v>
+      </c>
+      <c r="I99">
+        <v>-0.02046246923558551</v>
+      </c>
+      <c r="J99">
+        <v>0.0161046965478181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3894,89 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.00175200271312248</v>
+        <v>0.005710419172529869</v>
       </c>
       <c r="C101">
-        <v>0.05674369931054248</v>
+        <v>-0.07985740428883363</v>
       </c>
       <c r="D101">
-        <v>0.04936191200438275</v>
+        <v>0.01838840204661185</v>
       </c>
       <c r="E101">
-        <v>0.08906012404813053</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1326064346135966</v>
+      </c>
+      <c r="F101">
+        <v>-0.05798450311653099</v>
+      </c>
+      <c r="G101">
+        <v>-0.1438249614901381</v>
+      </c>
+      <c r="H101">
+        <v>0.2387768165318734</v>
+      </c>
+      <c r="I101">
+        <v>-0.05539655486741069</v>
+      </c>
+      <c r="J101">
+        <v>0.2432252272281091</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.02065147535176248</v>
+        <v>0.008806524897629947</v>
       </c>
       <c r="C102">
-        <v>0.08766464137140825</v>
+        <v>-0.04196931031476226</v>
       </c>
       <c r="D102">
-        <v>-0.06670661487731604</v>
+        <v>0.0192021052231275</v>
       </c>
       <c r="E102">
-        <v>-0.03620619945984065</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.05226197022725673</v>
+      </c>
+      <c r="F102">
+        <v>-0.007844832612615241</v>
+      </c>
+      <c r="G102">
+        <v>0.04614906143089778</v>
+      </c>
+      <c r="H102">
+        <v>0.009959013832830588</v>
+      </c>
+      <c r="I102">
+        <v>-0.007206134262079854</v>
+      </c>
+      <c r="J102">
+        <v>0.00663444425253616</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3990,25 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4020,21 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
